--- a/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
+++ b/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/basicaudit/StructureDefinition/ihe-otherId</t>
+    <t>https://profiles.ihe.net/ITI/BALP/StructureDefinition/ihe-otherId</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T08:01:30-06:00</t>
+    <t>2022-05-04T10:16:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Copyright</t>
-  </si>
-  <si>
-    <t>IHE http://www.ihe.net/Governance/#Intellectual_Property</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -327,7 +324,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -348,7 +345,7 @@
 </t>
   </si>
   <si>
-    <t>valueReference</t>
+    <t>valueIdentifier</t>
   </si>
 </sst>
 </file>
@@ -612,64 +609,62 @@
       <c r="A16" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +684,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -728,140 +723,140 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>9</v>
@@ -872,570 +867,570 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s" s="2">
+      <c r="AG2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AG6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
+++ b/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,53 +253,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -684,16 +684,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="14.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="36.41015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -702,23 +702,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -925,7 +925,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -944,25 +944,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1013,13 +1013,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1028,12 +1028,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1056,13 +1056,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1101,19 +1101,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1125,7 +1125,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1141,10 +1141,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1218,10 +1218,10 @@
         <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1243,10 +1243,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1319,7 +1319,7 @@
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
@@ -1343,10 +1343,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1421,7 +1421,7 @@
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>

--- a/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
+++ b/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T09:04:31-05:00</t>
+    <t>2023-08-01T08:55:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -129,115 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
+    <t>element:AuditEvent.agent</t>
   </si>
   <si>
     <t/>
@@ -247,6 +139,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -334,18 +230,8 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>valueIdentifier</t>
   </si>
 </sst>
 </file>
@@ -467,10 +353,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -479,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -577,93 +463,85 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -674,7 +552,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -684,753 +562,556 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.41015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>3</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>69</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
+++ b/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T08:55:24-05:00</t>
+    <t>2024-02-14T10:34:48-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,6 +130,117 @@
   </si>
   <si>
     <t>element:AuditEvent.agent</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -149,6 +260,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -192,10 +307,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -552,7 +663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -563,555 +674,670 @@
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="F1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
+++ b/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T08:55:24-05:00</t>
+    <t>2024-02-14T15:31:49-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,6 +130,117 @@
   </si>
   <si>
     <t>element:AuditEvent.agent</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -149,6 +260,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -192,10 +307,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -552,7 +663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -563,555 +674,670 @@
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="F1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
+++ b/ITI/BALP/StructureDefinition-ihe-otherId.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T15:31:49-06:00</t>
+    <t>2025-10-31T12:57:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IHE IT Infrastructure Technical Committee (https://www.ihe.net/ihe_domains/it_infrastructure/, iti@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE IT Infrastructure Technical Committee (iti@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -343,6 +346,173 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.value[x].type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/OtherIdentifierTypesVS</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Extension.value[x].system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Extension.value[x].value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Extension.value[x].period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.value[x].assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
 </sst>
 </file>
@@ -569,91 +739,91 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +833,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -672,672 +842,1512 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.9140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.10546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="25.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="145.7421875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.30859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="89.40625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>101</v>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
